--- a/Proyectos/00-000_EMPRESA_Casa Madera/01_Hojas de calculo/PlanillaMadera.xlsx
+++ b/Proyectos/00-000_EMPRESA_Casa Madera/01_Hojas de calculo/PlanillaMadera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andres\Sigma\Proyectos\00-000_EMPRESA_Casa Madera\01_Hojas de calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019951A4-70B2-44DA-9DE0-F73691E55825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A5925B-786F-430F-9E2F-D27177FB96FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flexión" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>Madera</t>
   </si>
@@ -202,6 +202,33 @@
   </si>
   <si>
     <t>mm</t>
+  </si>
+  <si>
+    <t>F't</t>
+  </si>
+  <si>
+    <t>F'c(h=78)</t>
+  </si>
+  <si>
+    <t>F'c(h=130)</t>
+  </si>
+  <si>
+    <t>Tipo A</t>
+  </si>
+  <si>
+    <t>Tipo B</t>
+  </si>
+  <si>
+    <t>Cordon</t>
+  </si>
+  <si>
+    <t>Montante</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -251,10 +278,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,7 +566,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -572,13 +600,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7.5</v>
+        <v>9.4</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -586,13 +614,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.4000000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>10800</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -600,13 +628,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>7200</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -614,13 +642,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8">
-        <v>4600</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -652,7 +680,7 @@
       </c>
       <c r="M11">
         <f>1.2*I18/I16^2</f>
-        <v>31.022128556375133</v>
+        <v>34.394099051633297</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -676,7 +704,7 @@
       </c>
       <c r="M12">
         <f>M11/I17</f>
-        <v>3.6541642407684245</v>
+        <v>3.2324648984595794</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -715,7 +743,7 @@
       </c>
       <c r="M14">
         <f>(1+M12)/1.9-SQRT(((1+M12)/1.9)^2-M12/0.95)</f>
-        <v>0.9819579531307594</v>
+        <v>0.97874741384727049</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -724,7 +752,7 @@
       </c>
       <c r="B15">
         <f>M14</f>
-        <v>0.9819579531307594</v>
+        <v>0.97874741384727049</v>
       </c>
       <c r="H15" t="s">
         <v>26</v>
@@ -769,7 +797,7 @@
       </c>
       <c r="I17">
         <f>B5*B11*B12*B13*B14*C17</f>
-        <v>8.4895277038373003</v>
+        <v>10.640208055476084</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -785,7 +813,7 @@
       </c>
       <c r="I18">
         <f>E8*B12*B13</f>
-        <v>4600</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,7 +822,7 @@
       </c>
       <c r="B20">
         <f>B5*B11*B12*B13*B14*B15*C16</f>
-        <v>8.9725645298240408</v>
+        <v>11.208846357185728</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -874,7 +902,7 @@
       </c>
       <c r="B31">
         <f>(PI()/(2*B24^2))*SQRT(B27*E6*1000000/B29)</f>
-        <v>69.18160986745464</v>
+        <v>72.923819792778701</v>
       </c>
       <c r="C31" t="s">
         <v>51</v>
@@ -906,7 +934,7 @@
       </c>
       <c r="B36">
         <f>B24^3*100000000/(48*E6*D27)</f>
-        <v>1.0536253139803435</v>
+        <v>0.94826278258230923</v>
       </c>
       <c r="C36" t="s">
         <v>55</v>
@@ -925,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D159BC-4AE8-48E1-A54E-52519EB56EC2}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,13 +985,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7.5</v>
+        <v>9.4</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,13 +999,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.4000000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>10800</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -985,13 +1013,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>7200</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,13 +1027,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8">
-        <v>4600</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,14 +1071,14 @@
       </c>
       <c r="B15">
         <f>E5*B11*B12*B13</f>
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15">
         <f>E8*B12*B13</f>
-        <v>4600</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1058,7 +1086,7 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>600</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,53 +1113,53 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <f>0.822*$E$15/($B$16/A20)^2</f>
-        <v>85.076999999999984</v>
+        <v>55.813313609467464</v>
       </c>
       <c r="C20">
         <f>(1+B20/$B$15)/(2*$B$17)-SQRT(((1+B20/$B$15)/(2*$B$17))^2-B20/$B$15/$B$17)</f>
-        <v>0.98374440881212255</v>
+        <v>0.97212213838252026</v>
       </c>
       <c r="D20">
         <f>$B$15*C20</f>
-        <v>6.4927130981600083</v>
+        <v>6.9992793963541464</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21:B22" si="0">0.822*$E$15/($B$16/A21)^2</f>
-        <v>177.50633333333337</v>
+        <v>116.44999999999999</v>
       </c>
       <c r="C21">
         <f t="shared" ref="C21:C22" si="1">(1+B21/$B$15)/(2*$B$17)-SQRT(((1+B21/$B$15)/(2*$B$17))^2-B21/$B$15/$B$17)</f>
-        <v>0.99239572131334697</v>
+        <v>0.98716622407414611</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D22" si="2">$B$15*C21</f>
-        <v>6.5498117606680895</v>
+        <v>7.1075968133338518</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>340.30799999999994</v>
+        <v>223.25325443786986</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>0.99607573498649771</v>
+        <v>0.99342379071789466</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>6.5740998509108843</v>
+        <v>7.1526512931688417</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,11 +1194,11 @@
       </c>
       <c r="D25">
         <f>D20</f>
-        <v>6.4927130981600083</v>
+        <v>6.9992793963541464</v>
       </c>
       <c r="E25" s="2">
         <f>C25*D25/1000</f>
-        <v>14.024260292025618</v>
+        <v>15.118443496124957</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1188,11 +1216,11 @@
       </c>
       <c r="D26">
         <f>D21</f>
-        <v>6.5498117606680895</v>
+        <v>7.1075968133338518</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ref="E26:E29" si="3">C26*D26/1000</f>
-        <v>20.435412693284437</v>
+        <v>22.175702057601619</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1210,11 +1238,11 @@
       </c>
       <c r="D27">
         <f>D20</f>
-        <v>6.4927130981600083</v>
+        <v>6.9992793963541464</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="3"/>
-        <v>23.373767153376029</v>
+        <v>25.197405826874927</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,11 +1260,11 @@
       </c>
       <c r="D28">
         <f>D21</f>
-        <v>6.5498117606680895</v>
+        <v>7.1075968133338518</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="3"/>
-        <v>34.05902115547407</v>
+        <v>36.959503429336031</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1254,11 +1282,11 @@
       </c>
       <c r="D29">
         <f>D22</f>
-        <v>6.5740998509108843</v>
+        <v>7.1526512931688417</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="3"/>
-        <v>47.333518926558369</v>
+        <v>51.499089310815663</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1303,13 +1331,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7.5</v>
+        <v>9.4</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1317,13 +1345,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.4000000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>10800</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1331,13 +1359,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>7200</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1345,13 +1373,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8">
-        <v>4600</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,7 +1450,7 @@
       </c>
       <c r="C18">
         <f>$B$6*$B$11*$B$12*$B$13*C14</f>
-        <v>4.873291910292477</v>
+        <v>6.2023715221904236</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1431,7 +1459,7 @@
       </c>
       <c r="C19">
         <f t="shared" ref="C19:C20" si="1">$B$6*$B$11*$B$12*$B$13*C15</f>
-        <v>4.5277481087132267</v>
+        <v>5.7625885019986516</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1440,7 +1468,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>4.2424470176115605</v>
+        <v>5.3994780224147121</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1475,11 +1503,11 @@
       </c>
       <c r="D23">
         <f>C18</f>
-        <v>4.873291910292477</v>
+        <v>6.2023715221904236</v>
       </c>
       <c r="E23" s="2">
         <f>C23*D23/1000</f>
-        <v>10.52631052623175</v>
+        <v>13.397122487931316</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1497,11 +1525,11 @@
       </c>
       <c r="D24">
         <f>C19</f>
-        <v>4.5277481087132267</v>
+        <v>5.7625885019986516</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ref="E24:E27" si="2">C24*D24/1000</f>
-        <v>14.126574099185268</v>
+        <v>17.979276126235792</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,11 +1547,11 @@
       </c>
       <c r="D25">
         <f>C18</f>
-        <v>4.873291910292477</v>
+        <v>6.2023715221904236</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="2"/>
-        <v>17.543850877052918</v>
+        <v>22.328537479885526</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1541,11 +1569,11 @@
       </c>
       <c r="D26">
         <f>C19</f>
-        <v>4.5277481087132267</v>
+        <v>5.7625885019986516</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="2"/>
-        <v>23.54429016530878</v>
+        <v>29.965460210392987</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1563,11 +1591,11 @@
       </c>
       <c r="D27">
         <f>C20</f>
-        <v>4.2424470176115605</v>
+        <v>5.3994780224147121</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="2"/>
-        <v>30.545618526803235</v>
+        <v>38.876241761385927</v>
       </c>
     </row>
   </sheetData>
@@ -1577,20 +1605,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B6D26E-E587-417C-978B-498D6BA8933D}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1600,8 +1634,17 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24</v>
       </c>
@@ -1612,8 +1655,19 @@
         <f>A3*B3</f>
         <v>2160</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <f>Tracción!E23</f>
+        <v>13.397122487931316</v>
+      </c>
+      <c r="E3" s="2">
+        <v>14.176579650676809</v>
+      </c>
+      <c r="F3" s="2">
+        <v>15.118443496124957</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24</v>
       </c>
@@ -1624,8 +1678,19 @@
         <f t="shared" ref="C4:C7" si="0">A4*B4</f>
         <v>3120</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <f>Tracción!E24</f>
+        <v>17.979276126235792</v>
+      </c>
+      <c r="E4" s="2">
+        <v>21.608710632563533</v>
+      </c>
+      <c r="F4" s="2">
+        <v>22.175702057601619</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -1636,8 +1701,19 @@
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <f>Tracción!E25</f>
+        <v>22.328537479885526</v>
+      </c>
+      <c r="E5" s="2">
+        <v>23.627632751128015</v>
+      </c>
+      <c r="F5" s="2">
+        <v>25.197405826874927</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1648,8 +1724,19 @@
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <f>Tracción!E26</f>
+        <v>29.965460210392987</v>
+      </c>
+      <c r="E6" s="2">
+        <v>36.014517720939217</v>
+      </c>
+      <c r="F6" s="2">
+        <v>36.959503429336031</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1660,8 +1747,80 @@
         <f t="shared" si="0"/>
         <v>7200</v>
       </c>
+      <c r="D7" s="2">
+        <f>Tracción!E27</f>
+        <v>38.876241761385927</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50.859832950103389</v>
+      </c>
+      <c r="F7" s="2">
+        <v>51.499089310815663</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <f>B13/2</f>
+        <v>11.37</v>
+      </c>
+      <c r="C12">
+        <f>C13/2</f>
+        <v>-6.17</v>
+      </c>
+      <c r="D12">
+        <v>10.72</v>
+      </c>
+      <c r="E12">
+        <v>-24.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>22.74</v>
+      </c>
+      <c r="C13">
+        <v>-12.34</v>
+      </c>
+      <c r="D13">
+        <f>D12/2</f>
+        <v>5.36</v>
+      </c>
+      <c r="E13">
+        <f>E12/2</f>
+        <v>-12.39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>